--- a/Reports/CHP-study/chp-manpower.xlsx
+++ b/Reports/CHP-study/chp-manpower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CHP\Reports\CHP-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF6D80F-D9AC-47BC-A8CB-801818CF151E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D21624C-9930-443B-B463-35B6D8C4EB6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>SL</t>
   </si>
@@ -64,13 +64,16 @@
   </si>
   <si>
     <t>Existing as on 20.09.2020</t>
+  </si>
+  <si>
+    <t>CHP MANPOWER DETAILS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +83,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -121,12 +132,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,10 +426,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,127 +440,138 @@
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
-        <f>SUM(D5:E5)</f>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <f>SUM(D7:E7)</f>
         <v>5</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <f t="shared" ref="F6:F7" si="0">SUM(D6:E6)</f>
-        <v>39</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="D8" s="1">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <f t="shared" ref="F8:F9" si="0">SUM(D8:E8)</f>
+        <v>33</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2">
-        <v>113</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D9" s="1">
+        <v>109</v>
+      </c>
+      <c r="E9" s="1">
         <v>89</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>202</v>
-      </c>
-      <c r="G7" s="2">
+        <v>198</v>
+      </c>
+      <c r="G9" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
-        <f>SUM(D5:D7)</f>
-        <v>157</v>
-      </c>
-      <c r="E8" s="2">
-        <f>SUM(E5:E7)</f>
+      <c r="D10" s="1">
+        <f>SUM(D7:D9)</f>
+        <v>147</v>
+      </c>
+      <c r="E10" s="1">
+        <f>SUM(E7:E9)</f>
         <v>89</v>
       </c>
-      <c r="F8" s="2">
-        <f>SUM(F5:F7)</f>
-        <v>246</v>
-      </c>
-      <c r="G8" s="2">
-        <f>SUM(G5:G7)</f>
+      <c r="F10" s="1">
+        <f>SUM(F7:F9)</f>
+        <v>236</v>
+      </c>
+      <c r="G10" s="1">
+        <f>SUM(G7:G9)</f>
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="D2:G2"/>
+  <mergeCells count="5">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="78" orientation="portrait" r:id="rId1"/>
